--- a/starterset/predictions.xlsx
+++ b/starterset/predictions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\Healthhack\HealthcareHackathonMRIQA\starterset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0DEB02-F68E-40EE-A2FC-C4B7B3F3D4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8ABA73-91F5-42C5-A195-AEB5DEE83130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,9 +51,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -526,7 +534,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -882,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1551,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1631,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1690,8 +1698,12 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1751,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1771,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1811,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1831,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
